--- a/medicine/Psychotrope/Kimbo_Caffè/Kimbo_Caffè.xlsx
+++ b/medicine/Psychotrope/Kimbo_Caffè/Kimbo_Caffè.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Kimbo_Caff%C3%A8</t>
+          <t>Kimbo_Caffè</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Kimbo Caffè est une entreprise italienne de production et torréfaction de café qui, depuis 2013, a pris le nom de sa marque plus célèbre et la remplaçant par l'initiale Café do Brasil, né en 1963 à Naples. L'entreprise compte quatre marques : Kimbo, Kosé, Caffè Karalis, La Tazza d'oro.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Kimbo_Caff%C3%A8</t>
+          <t>Kimbo_Caffè</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Café do Brasil a été fondé dans les années cinquante à Naples par les trois frères Rubino - Francesco, Gerardo, Elio - qui torréfiaient du café dans la pâtisserie de leur père et vendaient leur café dans des sacs en papier. Ils créent la marque Café do Brasil et ouvrent leur usine de torréfaction à Melito en 1963[1],[2]. Café do Brasil se spécialisait dans la torréfaction et la vente de café pour les bars puis pour les particuliers[3]. "Kimbo Caffè" nait en 1963, et a été rejoint en 1991 par la marque Kosé. Dans les années 2000, le groupe lance sa propre gamme de machine à expresso à dosettes[4]. De nombreux produits dérivés (tasses, gobelets, néons...)[5] sont distribués autour de la marque. Le café se décline en sachets, boîtes et dosettes.
-C'est l'une des marques de café italiennes plus connues au monde[6].
-Sur l'année 2018, Kimbo enregistre un chiffre d'affaires de 187,5 millions d'euros[7]. En avril 2020, Roberto Grasso est nommé directeur général de Kimbo Caffè[8]. En mai 2020, des triporteurs barista sont lancés dans la capitale française pour distribuer du café espresso de la marque Kimbo aux Parisiens dans leurs déplacements[9].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Café do Brasil a été fondé dans les années cinquante à Naples par les trois frères Rubino - Francesco, Gerardo, Elio - qui torréfiaient du café dans la pâtisserie de leur père et vendaient leur café dans des sacs en papier. Ils créent la marque Café do Brasil et ouvrent leur usine de torréfaction à Melito en 1963,. Café do Brasil se spécialisait dans la torréfaction et la vente de café pour les bars puis pour les particuliers. "Kimbo Caffè" nait en 1963, et a été rejoint en 1991 par la marque Kosé. Dans les années 2000, le groupe lance sa propre gamme de machine à expresso à dosettes. De nombreux produits dérivés (tasses, gobelets, néons...) sont distribués autour de la marque. Le café se décline en sachets, boîtes et dosettes.
+C'est l'une des marques de café italiennes plus connues au monde.
+Sur l'année 2018, Kimbo enregistre un chiffre d'affaires de 187,5 millions d'euros. En avril 2020, Roberto Grasso est nommé directeur général de Kimbo Caffè. En mai 2020, des triporteurs barista sont lancés dans la capitale française pour distribuer du café espresso de la marque Kimbo aux Parisiens dans leurs déplacements.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Kimbo_Caff%C3%A8</t>
+          <t>Kimbo_Caffè</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,9 +559,11 @@
           <t>Distributeurs étrangers</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>À travers le monde, la marque est distribuée par [10]:
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>À travers le monde, la marque est distribuée par :
 Allemagne : Stefano Misischia
 Canada : Gigi Importing
 France : France Boissons
